--- a/House/楼盘信息.xlsx
+++ b/House/楼盘信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="226">
   <si>
     <t>序号</t>
   </si>
@@ -52,6 +52,15 @@
     <t>主干道</t>
   </si>
   <si>
+    <t>距离家</t>
+  </si>
+  <si>
+    <t>距离市政府</t>
+  </si>
+  <si>
+    <t>In_10min</t>
+  </si>
+  <si>
     <t>富力铂悦府</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t>东营市人民医院 5.3km</t>
   </si>
   <si>
+    <t>58km</t>
+  </si>
+  <si>
+    <t>5.8km</t>
+  </si>
+  <si>
     <t>东六路与辽河路交叉口东南150m</t>
   </si>
   <si>
@@ -109,6 +124,12 @@
     <t>人民医院 5km</t>
   </si>
   <si>
+    <t>44km</t>
+  </si>
+  <si>
+    <t>5.5km</t>
+  </si>
+  <si>
     <t>悦来湖小学 3.3km</t>
   </si>
   <si>
@@ -139,6 +160,12 @@
     <t>人民医院 2.7km</t>
   </si>
   <si>
+    <t>49km</t>
+  </si>
+  <si>
+    <t>4.7km</t>
+  </si>
+  <si>
     <t>实验中学 3.8km</t>
   </si>
   <si>
@@ -163,6 +190,12 @@
     <t>胜利医院 3.6km</t>
   </si>
   <si>
+    <t>51km</t>
+  </si>
+  <si>
+    <t>7.6km</t>
+  </si>
+  <si>
     <t>英才小学 1.5km</t>
   </si>
   <si>
@@ -196,6 +229,12 @@
     <t>胜利医院 2.8km</t>
   </si>
   <si>
+    <t>36km</t>
+  </si>
+  <si>
+    <t>6.8km</t>
+  </si>
+  <si>
     <t xml:space="preserve">东城泸州路与沙河路交汇处西南 </t>
   </si>
   <si>
@@ -235,6 +274,12 @@
     <t>油田中心医院 5.5km</t>
   </si>
   <si>
+    <t>40km</t>
+  </si>
+  <si>
+    <t>12km</t>
+  </si>
+  <si>
     <t>第五中学 1.1km</t>
   </si>
   <si>
@@ -274,6 +319,9 @@
     <t>人民医院 1.8km</t>
   </si>
   <si>
+    <t>2km</t>
+  </si>
+  <si>
     <t>实验小学 1.8km</t>
   </si>
   <si>
@@ -304,6 +352,12 @@
     <t>胜利油田 1.3km</t>
   </si>
   <si>
+    <t>37km</t>
+  </si>
+  <si>
+    <t>7.3km</t>
+  </si>
+  <si>
     <t>第一中学 2.2km</t>
   </si>
   <si>
@@ -340,6 +394,12 @@
     <t>胜利医院 5.8km</t>
   </si>
   <si>
+    <t>35km</t>
+  </si>
+  <si>
+    <t>10km</t>
+  </si>
+  <si>
     <t>锦苑小学 2.6km</t>
   </si>
   <si>
@@ -364,6 +424,12 @@
     <t>万芳购物中心 2.7km</t>
   </si>
   <si>
+    <t>45km</t>
+  </si>
+  <si>
+    <t>3.9km</t>
+  </si>
+  <si>
     <t>第二中学 1.4km</t>
   </si>
   <si>
@@ -397,6 +463,12 @@
     <t>人民医院 4.9km</t>
   </si>
   <si>
+    <t>41km</t>
+  </si>
+  <si>
+    <t>6.2km</t>
+  </si>
+  <si>
     <t>实验中学 1.1km</t>
   </si>
   <si>
@@ -418,6 +490,12 @@
     <t>东营文化公园 699m</t>
   </si>
   <si>
+    <t>43km</t>
+  </si>
+  <si>
+    <t>8.9km</t>
+  </si>
+  <si>
     <t>石油大学附属小学 4.7km</t>
   </si>
   <si>
@@ -454,6 +532,9 @@
     <t>油田中心医院 4km</t>
   </si>
   <si>
+    <t>13km</t>
+  </si>
+  <si>
     <t>第五中学 1.5km</t>
   </si>
   <si>
@@ -487,6 +568,9 @@
     <t>胜利医院 2.1km</t>
   </si>
   <si>
+    <t>8.1km</t>
+  </si>
+  <si>
     <t>锦华中学 1.7km</t>
   </si>
   <si>
@@ -517,6 +601,12 @@
     <t>油田中心医院 5.1km</t>
   </si>
   <si>
+    <t>42km</t>
+  </si>
+  <si>
+    <t>11km</t>
+  </si>
+  <si>
     <t>第一中学1.9km</t>
   </si>
   <si>
@@ -547,6 +637,9 @@
     <t>油田胜利医院 3.9km</t>
   </si>
   <si>
+    <t>8.5km</t>
+  </si>
+  <si>
     <t>华山小学 1.7km</t>
   </si>
   <si>
@@ -584,6 +677,12 @@
   </si>
   <si>
     <t>人民医院 4.6km</t>
+  </si>
+  <si>
+    <t>53km</t>
+  </si>
+  <si>
+    <t>6.6km</t>
   </si>
   <si>
     <t>锦华中学 1.9km</t>
@@ -615,6 +714,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -629,7 +736,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,8 +756,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,17 +782,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,26 +804,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,29 +829,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -753,6 +838,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,7 +872,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,25 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,13 +1022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,103 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,6 +1090,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1002,17 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,21 +1145,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,8 +1341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1564,12 +1663,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1581,9 +1680,11 @@
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="22.8833333333333" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,13 +1721,22 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1638,12 +1748,15 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>9500</v>
@@ -1653,27 +1766,34 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" ht="27" spans="1:12">
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" ht="27" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1681,19 +1801,22 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1701,17 +1824,20 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1724,13 +1850,16 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1742,12 +1871,15 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" ht="27" spans="1:12">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" ht="27" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>8900</v>
@@ -1757,23 +1889,30 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
@@ -1783,17 +1922,20 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
@@ -1801,15 +1943,18 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -1817,15 +1962,18 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -1838,13 +1986,16 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1856,12 +2007,15 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
         <v>10000</v>
@@ -1871,23 +2025,30 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1897,17 +2058,20 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1920,13 +2084,16 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1938,12 +2105,15 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" ht="27" spans="1:12">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" ht="27" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <v>8300</v>
@@ -1953,21 +2123,28 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1977,21 +2154,24 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2001,15 +2181,18 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2017,15 +2200,18 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2038,13 +2224,16 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2056,12 +2245,15 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4">
         <v>9700</v>
@@ -2071,25 +2263,32 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" ht="27" spans="1:12">
+      <c r="M24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" ht="27" spans="1:15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4">
@@ -2097,21 +2296,24 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2119,17 +2321,20 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2137,15 +2342,18 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2153,15 +2361,18 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2169,20 +2380,23 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2194,12 +2408,15 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" ht="27" spans="1:12">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" ht="27" spans="1:15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4">
         <v>8000</v>
@@ -2209,21 +2426,28 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2233,19 +2457,22 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2255,17 +2482,20 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2273,17 +2503,20 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2296,13 +2529,16 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2314,12 +2550,15 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" ht="27" spans="1:12">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" ht="27" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1">
         <v>9300</v>
@@ -2329,21 +2568,28 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2351,17 +2597,20 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2369,15 +2618,18 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2385,15 +2637,18 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2406,8 +2661,11 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2420,13 +2678,16 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2438,12 +2699,15 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" ht="27" spans="1:12">
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" ht="27" spans="1:15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1">
         <v>8500</v>
@@ -2453,21 +2717,28 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2477,19 +2748,22 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2499,17 +2773,20 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2517,15 +2794,18 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2538,13 +2818,16 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="2">
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2556,12 +2839,15 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D50" s="1">
         <v>8500</v>
@@ -2571,21 +2857,28 @@
       </c>
       <c r="F50" s="1"/>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2595,16 +2888,19 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2614,14 +2910,17 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2634,13 +2933,16 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="2">
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2652,12 +2954,15 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1">
         <v>9335</v>
@@ -2667,21 +2972,28 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2691,19 +3003,22 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2713,17 +3028,20 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2736,8 +3054,11 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2750,13 +3071,16 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="2">
         <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2768,12 +3092,15 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-    </row>
-    <row r="61" ht="27" spans="1:12">
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" ht="27" spans="1:15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1">
         <v>8500</v>
@@ -2783,21 +3110,28 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2807,17 +3141,20 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2827,17 +3164,20 @@
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2852,8 +3192,11 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2866,8 +3209,11 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2880,13 +3226,16 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="2">
         <v>12</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2898,12 +3247,15 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" ht="27" spans="1:12">
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" ht="27" spans="1:15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D68" s="1">
         <v>9788</v>
@@ -2913,21 +3265,28 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2937,21 +3296,24 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2959,15 +3321,18 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2975,15 +3340,18 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2996,8 +3364,11 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3010,13 +3381,16 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="2">
         <v>13</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3028,12 +3402,15 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-    </row>
-    <row r="75" ht="27" spans="1:12">
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" ht="27" spans="1:15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D75" s="1">
         <v>7500</v>
@@ -3043,21 +3420,28 @@
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3067,21 +3451,24 @@
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3091,15 +3478,18 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3107,15 +3497,18 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3128,8 +3521,11 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3142,13 +3538,16 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="2">
         <v>14</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3160,12 +3559,15 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" ht="27" spans="1:12">
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" ht="27" spans="1:15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D82" s="1">
         <v>9468</v>
@@ -3175,21 +3577,28 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3199,21 +3608,24 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3223,17 +3635,20 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3248,8 +3663,11 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3262,8 +3680,11 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3276,13 +3697,16 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="2">
         <v>15</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3294,12 +3718,15 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="D89" s="1">
         <v>9000</v>
@@ -3307,21 +3734,28 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3329,21 +3763,24 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3351,15 +3788,18 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3367,15 +3807,18 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3388,8 +3831,11 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3402,13 +3848,16 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="2">
         <v>16</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3420,12 +3869,15 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="D96" s="1">
         <v>7392</v>
@@ -3435,21 +3887,28 @@
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3459,21 +3918,24 @@
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3483,17 +3945,20 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3503,15 +3968,18 @@
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3524,8 +3992,11 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3538,13 +4009,16 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="2">
         <v>17</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3556,12 +4030,15 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" ht="27" spans="1:12">
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" ht="27" spans="1:15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="6" t="s">
-        <v>185</v>
+      <c r="C103" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D103" s="1">
         <v>9500</v>
@@ -3571,21 +4048,28 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3595,17 +4079,20 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3615,15 +4102,18 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3636,8 +4126,11 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3650,8 +4143,11 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3664,8 +4160,11 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3678,8 +4177,11 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3692,8 +4194,11 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3706,8 +4211,11 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3720,8 +4228,11 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3734,6 +4245,9 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
